--- a/ПКМ/resdata PKM Temp=-15, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-15, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>945.3090876972303</v>
       </c>
       <c r="E3" t="n">
-        <v>442.6247977525502</v>
+        <v>442.6939874980879</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.65568611422506</v>
+        <v>13.65574640814705</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.4822658493853</v>
+        <v>539.4809495091896</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>962.8415072511328</v>
+        <v>962.8389241452471</v>
       </c>
       <c r="E5" t="n">
-        <v>456.2804838667752</v>
+        <v>456.3497339062349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781565693462518</v>
+        <v>0.7781568849163264</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202164241604127</v>
+        <v>0.1202169370355482</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03195119962038543</v>
+        <v>0.03195092707450154</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06311018400228886</v>
+        <v>0.06310963776439688</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565622870661222</v>
+        <v>0.006565613209227042</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.5319044816619</v>
+        <v>464.5348697871895</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.0622295463905</v>
+        <v>877.0645605073136</v>
       </c>
       <c r="E6" t="n">
-        <v>456.2804838667752</v>
+        <v>456.3497339062349</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781565693462518</v>
+        <v>0.7781568849163264</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202164241604127</v>
+        <v>0.1202169370355482</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03195119962038543</v>
+        <v>0.03195092707450154</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06311018400228886</v>
+        <v>0.06310963776439688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565622870661222</v>
+        <v>0.006565613209227042</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.5959974447319</v>
+        <v>290.606001420099</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.7304324077169</v>
+        <v>683.7403589192483</v>
       </c>
       <c r="E7" t="n">
-        <v>456.2804838667752</v>
+        <v>456.3497339062349</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781565693462518</v>
+        <v>0.7781568849163264</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202164241604127</v>
+        <v>0.1202169370355482</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03195119962038543</v>
+        <v>0.03195092707450154</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06311018400228886</v>
+        <v>0.06310963776439688</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565622870661222</v>
+        <v>0.006565613209227042</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.6499733213221</v>
+        <v>225.6520352615364</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.5010486859539</v>
+        <v>613.502317531795</v>
       </c>
       <c r="E8" t="n">
-        <v>456.2804838667752</v>
+        <v>456.3497339062349</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781565693462518</v>
+        <v>0.7781568849163264</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202164241604127</v>
+        <v>0.1202169370355482</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03195119962038543</v>
+        <v>0.03195092707450154</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06311018400228886</v>
+        <v>0.06310963776439688</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565622870661222</v>
+        <v>0.006565613209227042</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.7295338620682</v>
+        <v>224.7316056841935</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.5126030881974</v>
+        <v>612.5138824466952</v>
       </c>
       <c r="E9" t="n">
-        <v>456.2804838667752</v>
+        <v>456.3497339062349</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781565693462518</v>
+        <v>0.7781568849163264</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202164241604127</v>
+        <v>0.1202169370355482</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03195119962038543</v>
+        <v>0.03195092707450154</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06311018400228886</v>
+        <v>0.06310963776439688</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565622870661222</v>
+        <v>0.006565613209227042</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.437956478091</v>
+        <v>166.4433206139853</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.2666973506292</v>
+        <v>550.2714692627325</v>
       </c>
       <c r="E10" t="n">
-        <v>456.2804838667752</v>
+        <v>456.3497339062349</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781565693462518</v>
+        <v>0.7781568849163264</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202164241604127</v>
+        <v>0.1202169370355482</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03195119962038543</v>
+        <v>0.03195092707450154</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06311018400228886</v>
+        <v>0.06310963776439688</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565622870661222</v>
+        <v>0.006565613209227042</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.2206272369619</v>
+        <v>104.2223691603007</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>484.4946242944828</v>
+        <v>484.4955509446694</v>
       </c>
       <c r="E11" t="n">
-        <v>456.2804838667752</v>
+        <v>456.3497339062349</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781565693462518</v>
+        <v>0.7781568849163264</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202164241604127</v>
+        <v>0.1202169370355482</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03195119962038543</v>
+        <v>0.03195092707450154</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06311018400228886</v>
+        <v>0.06310963776439688</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565622870661222</v>
+        <v>0.006565613209227042</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.94434835888118</v>
+        <v>12.94440551203509</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7113377553438883</v>
+        <v>0.7113408961119737</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97391233870527</v>
+        <v>11.97396211504722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97391233870527</v>
+        <v>11.97396211504722</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97391233870527</v>
+        <v>11.97396211504722</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97391233870527</v>
+        <v>11.97396211504722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.76269430717945</v>
+        <v>4.762714106013261</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944162</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7082208177592216</v>
+        <v>0.7081745292465879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7502428477535544</v>
+        <v>0.7501460646950332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9439887629450131</v>
+        <v>0.9440488493857412</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7149973623625714</v>
+        <v>0.7151865818894918</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.96402768333538</v>
+        <v>50.9778355024617</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.95529802673525</v>
+        <v>32.96219351417298</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493828605408217</v>
+        <v>0.8493828113476047</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.36007141628438</v>
+        <v>11.36260913719396</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8295836646411717</v>
+        <v>0.8295741796807156</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.204019654128033</v>
+        <v>4.205299493024405</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149615144789311</v>
+        <v>0.81496103154647</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.444638586187716</v>
+        <v>2.447733358070353</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4707625378673435</v>
+        <v>0.4710234891358024</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1503526207862957</v>
+        <v>0.1504375065869072</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1673177740944319</v>
+        <v>0.1674111915286556</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8986051936206054</v>
+        <v>0.8986108109812777</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40878.38887397345</v>
+        <v>40880.98721640267</v>
       </c>
       <c r="C2" t="n">
-        <v>41291.30189290248</v>
+        <v>41293.92648121482</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90269.18955166262</v>
+        <v>90260.33330376011</v>
       </c>
       <c r="C3" t="n">
-        <v>91180.99954713396</v>
+        <v>91172.05384218194</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38351.99022409657</v>
+        <v>38361.9124573999</v>
       </c>
       <c r="C4" t="n">
-        <v>38739.38406474401</v>
+        <v>38749.40652262616</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.1480232517049</v>
+        <v>510.1386080147599</v>
       </c>
       <c r="C5" t="n">
-        <v>515.3010335875807</v>
+        <v>515.2915232472322</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32546.17618171229</v>
+        <v>32542.00956479759</v>
       </c>
       <c r="C6" t="n">
-        <v>32874.92543607302</v>
+        <v>32870.71673211877</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37156.09120655704</v>
+        <v>37155.40802481359</v>
       </c>
       <c r="C7" t="n">
-        <v>37531.40525914852</v>
+        <v>37530.71517657938</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.23787633439084</v>
+        <v>36.25128662611522</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.53920564786679</v>
+        <v>88.52670184351577</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.77420937674448</v>
+        <v>7.77330288937114</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>514.7251042865996</v>
+        <v>514.7228722392084</v>
       </c>
       <c r="C3" t="n">
-        <v>6.299591451373864</v>
+        <v>6.300533394366919</v>
       </c>
       <c r="D3" t="n">
-        <v>3454.761588454622</v>
+        <v>3454.746375413005</v>
       </c>
       <c r="E3" t="n">
-        <v>57.14788415918878</v>
+        <v>57.15996830600056</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.626715397413</v>
+        <v>282.635901784008</v>
       </c>
       <c r="C4" t="n">
-        <v>6.674696905338175</v>
+        <v>6.675613302879985</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.751354115172</v>
+        <v>2776.740045081909</v>
       </c>
       <c r="E4" t="n">
-        <v>57.14788415918878</v>
+        <v>57.15996830600056</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2340374982829</v>
+        <v>282.2405785172772</v>
       </c>
       <c r="C5" t="n">
-        <v>6.674696905338175</v>
+        <v>6.675613302879985</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.59113307008</v>
+        <v>1248.62542094003</v>
       </c>
       <c r="E5" t="n">
-        <v>57.14788415918878</v>
+        <v>57.15996830600056</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.3458172666213</v>
+        <v>163.3372724753902</v>
       </c>
       <c r="C6" t="n">
-        <v>6.674696905338175</v>
+        <v>6.675613302879985</v>
       </c>
       <c r="D6" t="n">
-        <v>693.4828819583312</v>
+        <v>693.446466337782</v>
       </c>
       <c r="E6" t="n">
-        <v>57.14788415918878</v>
+        <v>57.15996830600056</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.1323127265225</v>
+        <v>156.1372120349715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.559756578022244</v>
+        <v>0.5598277510113088</v>
       </c>
       <c r="D7" t="n">
-        <v>658.6934601122512</v>
+        <v>658.7146869305888</v>
       </c>
       <c r="E7" t="n">
-        <v>57.14788415918878</v>
+        <v>57.15996830600056</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.0554559350692</v>
+        <v>169.0624285915872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5537865270704471</v>
+        <v>0.5538273581125662</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.196918307289</v>
+        <v>2784.207711567871</v>
       </c>
       <c r="E8" t="n">
-        <v>14.36297295117923</v>
+        <v>14.3624522378161</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.1323126077535</v>
+        <v>156.1372119161933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.559756578022244</v>
+        <v>0.5598277510113088</v>
       </c>
       <c r="D9" t="n">
-        <v>2753.107607536801</v>
+        <v>2753.113194878103</v>
       </c>
       <c r="E9" t="n">
-        <v>14.36297295117923</v>
+        <v>14.3624522378161</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.1323127265225</v>
+        <v>156.1372120349715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.559756578022244</v>
+        <v>0.5598277510113088</v>
       </c>
       <c r="D10" t="n">
-        <v>686.1322118626692</v>
+        <v>686.1363012986042</v>
       </c>
       <c r="E10" t="n">
-        <v>71.51085711036802</v>
+        <v>71.52242054381666</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.1323127265225</v>
+        <v>156.1372120349715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.559756578022244</v>
+        <v>0.5598277510113088</v>
       </c>
       <c r="D11" t="n">
-        <v>686.1322118626692</v>
+        <v>686.1363012986042</v>
       </c>
       <c r="E11" t="n">
-        <v>71.51085711036802</v>
+        <v>71.52242054381666</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.52047157900051</v>
+        <v>64.51663127960404</v>
       </c>
       <c r="C12" t="n">
-        <v>0.559756578022244</v>
+        <v>0.5598277510113088</v>
       </c>
       <c r="D12" t="n">
-        <v>270.6651151680329</v>
+        <v>270.649040552693</v>
       </c>
       <c r="E12" t="n">
-        <v>71.51085711036802</v>
+        <v>71.52242054381666</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.52006652546635</v>
+        <v>64.51586980283088</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>270.6634197061717</v>
+        <v>270.6458531858697</v>
       </c>
       <c r="E13" t="n">
-        <v>71.51058976923292</v>
+        <v>71.51610337470528</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.84803009935655</v>
+        <v>63.84304631853826</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>267.850541879992</v>
+        <v>267.8296825936135</v>
       </c>
       <c r="E14" t="n">
-        <v>59.71199545241184</v>
+        <v>59.71722289680899</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.5038516114136</v>
+        <v>103.4999440169696</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1147737635754132</v>
+        <v>0.1147580979709338</v>
       </c>
       <c r="D15" t="n">
-        <v>433.9544472095148</v>
+        <v>433.937946165634</v>
       </c>
       <c r="E15" t="n">
-        <v>55.27074359083376</v>
+        <v>55.27235187626608</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.27748998877649</v>
+        <v>67.27636143046715</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1147781185046032</v>
+        <v>0.1147580419513209</v>
       </c>
       <c r="D16" t="n">
-        <v>281.728247963024</v>
+        <v>281.7235044636936</v>
       </c>
       <c r="E16" t="n">
-        <v>55.27197405334933</v>
+        <v>55.27130023716666</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>583.2641440717074</v>
+        <v>583.2604982279046</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.47431715241437</v>
+        <v>73.47385788213936</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.97722420073926</v>
+        <v>84.97414570771838</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>355.7996377284953</v>
+        <v>355.7867480782169</v>
       </c>
       <c r="E19" t="n">
-        <v>73.47431715241437</v>
+        <v>73.47385788213936</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>120.7728037434948</v>
+        <v>120.7587605494252</v>
       </c>
       <c r="C20" t="n">
-        <v>0.172719688796781</v>
+        <v>0.1727247070660548</v>
       </c>
       <c r="D20" t="n">
-        <v>2710.501040225072</v>
+        <v>2710.472454467115</v>
       </c>
       <c r="E20" t="n">
-        <v>11.79501788473997</v>
+        <v>11.79916046893286</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.064225782994</v>
+        <v>114.0651118155972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1640837043569419</v>
+        <v>0.164088471712752</v>
       </c>
       <c r="D21" t="n">
-        <v>478.6267775195757</v>
+        <v>478.6305325622835</v>
       </c>
       <c r="E21" t="n">
-        <v>11.79501788473997</v>
+        <v>11.79916046893286</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.7690872664411</v>
+        <v>100.7654271565851</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>421.9201683845891</v>
+        <v>421.9048435046218</v>
       </c>
       <c r="E22" t="n">
-        <v>583.2641440717074</v>
+        <v>583.2604982279046</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>466.60274855267</v>
       </c>
       <c r="E23" t="n">
-        <v>583.2641440717074</v>
+        <v>583.2604982279046</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.3109426728065</v>
+        <v>61.31055487222787</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>583.2641440717074</v>
+        <v>583.2604982279046</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.9788228265187</v>
+        <v>104.9748801183444</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1208144879741192</v>
+        <v>0.1207979978641408</v>
       </c>
       <c r="D25" t="n">
-        <v>2660.616474262685</v>
+        <v>2660.578879475521</v>
       </c>
       <c r="E25" t="n">
-        <v>43.47687356879352</v>
+        <v>43.47316739591434</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>511.8226987659758</v>
+        <v>511.8200742578795</v>
       </c>
       <c r="C26" t="n">
-        <v>5.676517477336724</v>
+        <v>5.677334867366413</v>
       </c>
       <c r="D26" t="n">
-        <v>3454.761588454622</v>
+        <v>3454.746375413005</v>
       </c>
       <c r="E26" t="n">
-        <v>45.34899451013381</v>
+        <v>45.3557777670273</v>
       </c>
       <c r="F26" t="n">
-        <v>6.947689374227592</v>
+        <v>6.947606316113766</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>203.9000892858262</v>
+        <v>203.8908570662351</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4097303322768704</v>
+        <v>0.4097604889460503</v>
       </c>
       <c r="D27" t="n">
-        <v>2868.620887415842</v>
+        <v>2868.600075888532</v>
       </c>
       <c r="E27" t="n">
-        <v>45.34899451013381</v>
+        <v>45.3557777670273</v>
       </c>
       <c r="F27" t="n">
-        <v>7.177636021015412</v>
+        <v>7.177559141344845</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.3277840975151</v>
+        <v>166.3334390070941</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4684397346744502</v>
+        <v>0.4684656345346367</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.196918307289</v>
+        <v>2784.207711567871</v>
       </c>
       <c r="E28" t="n">
-        <v>14.36297295117923</v>
+        <v>14.3624522378161</v>
       </c>
       <c r="F28" t="n">
-        <v>6.933083141139766</v>
+        <v>6.93308307814628</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>194.2436390562627</v>
+        <v>194.2394978732905</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4097303322768704</v>
+        <v>0.4097604889460503</v>
       </c>
       <c r="D29" t="n">
-        <v>2848.313749059985</v>
+        <v>2848.303404307784</v>
       </c>
       <c r="E29" t="n">
-        <v>59.71196746131304</v>
+        <v>59.7182300048434</v>
       </c>
       <c r="F29" t="n">
-        <v>7.134630571784739</v>
+        <v>7.134575251438253</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120.7717970599443</v>
+        <v>120.7592986565604</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172731986799684</v>
+        <v>0.1727243305519661</v>
       </c>
       <c r="D30" t="n">
-        <v>2710.499164847687</v>
+        <v>2710.473456920836</v>
       </c>
       <c r="E30" t="n">
-        <v>59.71196746131304</v>
+        <v>59.7182300048434</v>
       </c>
       <c r="F30" t="n">
-        <v>7.20387222547335</v>
+        <v>7.203826998641973</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.9780244278636</v>
+        <v>104.9753247966071</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1208111485758415</v>
+        <v>0.1207998576079455</v>
       </c>
       <c r="D31" t="n">
-        <v>2660.612729249697</v>
+        <v>2660.58096932448</v>
       </c>
       <c r="E31" t="n">
-        <v>47.91809743927281</v>
+        <v>47.91904552449166</v>
       </c>
       <c r="F31" t="n">
-        <v>7.235271311142689</v>
+        <v>7.235229273844773</v>
       </c>
       <c r="G31" t="n">
-        <v>98.98615955146084</v>
+        <v>98.98493346550727</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.8211668357543</v>
+        <v>85.80532375927913</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008848614113527184</v>
+        <v>0.008859409749313074</v>
       </c>
       <c r="D32" t="n">
-        <v>2660.612729249697</v>
+        <v>2660.58096932448</v>
       </c>
       <c r="E32" t="n">
-        <v>4.440021399062516</v>
+        <v>4.445922659642328</v>
       </c>
       <c r="F32" t="n">
-        <v>8.431886136046534</v>
+        <v>8.431235815958969</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>81.96731864529193</v>
+        <v>81.921610227288</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002412411495262794</v>
+        <v>0.002412774518076025</v>
       </c>
       <c r="D33" t="n">
-        <v>2654.291589608203</v>
+        <v>2654.205235074744</v>
       </c>
       <c r="E33" t="n">
-        <v>4.440021399062516</v>
+        <v>4.445922659642328</v>
       </c>
       <c r="F33" t="n">
-        <v>9.013446926830614</v>
+        <v>9.013134325964895</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.49763357866516</v>
+        <v>20.50007199859573</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002412411495262794</v>
+        <v>0.002412774518076025</v>
       </c>
       <c r="D34" t="n">
-        <v>85.99640628395758</v>
+        <v>86.00660901764994</v>
       </c>
       <c r="E34" t="n">
-        <v>4.440021399062516</v>
+        <v>4.445922659642328</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.5172347139079</v>
+        <v>22.51967513474403</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>95.09276852707303</v>
+        <v>95.10297121967047</v>
       </c>
       <c r="E35" t="n">
-        <v>4.440021399062516</v>
+        <v>4.445922659642328</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.7242044600821</v>
+        <v>499.7239433817101</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3467.632659828084</v>
+        <v>3467.632083869089</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16416910083357</v>
+        <v>10.16421135395373</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>284.8992297912401</v>
       </c>
       <c r="E41" t="n">
-        <v>11.79859431682108</v>
+        <v>11.79888047789628</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>514.7242044600821</v>
+        <v>514.7239433817101</v>
       </c>
       <c r="C42" t="n">
-        <v>6.299756139556944</v>
+        <v>6.300438386863817</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.757425983475</v>
+        <v>3454.749511850787</v>
       </c>
       <c r="E42" t="n">
-        <v>11.79859431682108</v>
+        <v>11.79888047789628</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97391233870527</v>
+        <v>11.97396211504722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97391233870527</v>
+        <v>11.97396211504722</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97391233870527</v>
+        <v>11.97396211504722</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97391233870527</v>
+        <v>11.97396211504722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.76269430717945</v>
+        <v>4.762714106013261</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944162</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.988141849624933</v>
+        <v>1.985267410126169</v>
       </c>
       <c r="C2" t="n">
-        <v>2.270501323182198</v>
+        <v>2.26704681198148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8756400312678404</v>
+        <v>0.8757064034293031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.192595916650825</v>
+        <v>0.1929431716703184</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>127.3304604332286</v>
+        <v>127.3643694340626</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.45793425491645</v>
+        <v>31.46084433921728</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.220054187726022</v>
+        <v>6.22012613515001</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.2286004789099</v>
+        <v>37.23522820563936</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.58089143357361</v>
+        <v>26.58512130019743</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493274302928336</v>
+        <v>0.8493277492517902</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.229179968179128</v>
+        <v>8.230960499609218</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8362201944036307</v>
+        <v>0.8362175923255346</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.390463081882467</v>
+        <v>2.39080038445995</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8077557170654625</v>
+        <v>0.8077598899408569</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02806599527469585</v>
+        <v>0.02834602137275927</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03366633059914437</v>
+        <v>0.03393191097621867</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04038804301305691</v>
+        <v>0.04044172283427705</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04525140170707989</v>
+        <v>0.0453114235120468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8925257890240762</v>
+        <v>0.8925281904578641</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38748.01623349368</v>
+        <v>38751.67694192614</v>
       </c>
       <c r="C2" t="n">
-        <v>39139.4103368623</v>
+        <v>39143.10802214761</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87331.39068581458</v>
+        <v>87341.21347282542</v>
       </c>
       <c r="C3" t="n">
-        <v>88213.52594526725</v>
+        <v>88223.44795234891</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31723.8542143691</v>
+        <v>31732.5803822868</v>
       </c>
       <c r="C4" t="n">
-        <v>32044.29718623142</v>
+        <v>32053.11149725939</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446.4983512641594</v>
+        <v>446.5613671881956</v>
       </c>
       <c r="C5" t="n">
-        <v>451.008435620363</v>
+        <v>451.0720880688845</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28117.57606877664</v>
+        <v>28120.2656072415</v>
       </c>
       <c r="C6" t="n">
-        <v>28401.59198866327</v>
+        <v>28404.30869418333</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29710.40818578959</v>
+        <v>29716.65459366747</v>
       </c>
       <c r="C7" t="n">
-        <v>30010.51331897939</v>
+        <v>30016.82282188633</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.06174687665116</v>
+        <v>26.07052236806817</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96.36179914673889</v>
+        <v>96.35320546752946</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.329955098574098</v>
+        <v>8.328955977696664</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34586.02314174394</v>
+        <v>34586.16106395033</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2813.847756978472</v>
+        <v>2814.523546896093</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22670.18796333728</v>
+        <v>22670.2880589702</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.743867666713</v>
+        <v>7875.776607652509</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.868479680063</v>
+        <v>5689.892132837953</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21120.99622827699</v>
+        <v>21121.08402964892</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37500.45633260224</v>
+        <v>37501.27631703547</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7686252591647262</v>
+        <v>0.7688299494993519</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.9805426585626</v>
+        <v>460.9760869615703</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.0299577047205</v>
+        <v>866.0249185059437</v>
       </c>
       <c r="E6" t="n">
         <v>520.834447815</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.2810216795575</v>
+        <v>303.2921587189747</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>690.9628131837394</v>
+        <v>690.9749497017178</v>
       </c>
       <c r="E7" t="n">
         <v>520.834447815</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.5072701514317</v>
+        <v>234.5006508175015</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.5833549369527</v>
+        <v>616.5762483769738</v>
       </c>
       <c r="E8" t="n">
         <v>520.834447815</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.585639997258</v>
+        <v>233.5790364313105</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.5939790695357</v>
+        <v>615.5868907693713</v>
       </c>
       <c r="E9" t="n">
         <v>520.834447815</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.4447068021226</v>
+        <v>174.4456416982148</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.4742572961592</v>
+        <v>552.4752496902958</v>
       </c>
       <c r="E10" t="n">
         <v>520.834447815</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.1945134882637</v>
+        <v>106.1967189900027</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.4141133932358</v>
+        <v>480.41643074307</v>
       </c>
       <c r="E11" t="n">
         <v>520.834447815</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.6490374020311</v>
+        <v>503.6389435505874</v>
       </c>
       <c r="C3" t="n">
-        <v>7.646645136321787</v>
+        <v>7.647973801804755</v>
       </c>
       <c r="D3" t="n">
-        <v>3412.681976598911</v>
+        <v>3412.641046699354</v>
       </c>
       <c r="E3" t="n">
-        <v>62.49119224692729</v>
+        <v>62.49213477006384</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.1066369316846</v>
+        <v>295.1186290533722</v>
       </c>
       <c r="C4" t="n">
-        <v>8.011339311936222</v>
+        <v>8.012714957990715</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.514516602454</v>
+        <v>2758.494037122086</v>
       </c>
       <c r="E4" t="n">
-        <v>62.49119224692729</v>
+        <v>62.49213477006384</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.4219312093338</v>
+        <v>294.4507124948609</v>
       </c>
       <c r="C5" t="n">
-        <v>8.011339311936222</v>
+        <v>8.012714957990715</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.01618304646</v>
+        <v>1314.175869079103</v>
       </c>
       <c r="E5" t="n">
-        <v>62.49119224692729</v>
+        <v>62.49213477006384</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.7450613400082</v>
+        <v>164.7470457827976</v>
       </c>
       <c r="C6" t="n">
-        <v>8.011339311936222</v>
+        <v>8.012714957990715</v>
       </c>
       <c r="D6" t="n">
-        <v>700.3071935170132</v>
+        <v>700.3165683074525</v>
       </c>
       <c r="E6" t="n">
-        <v>62.49119224692729</v>
+        <v>62.49213477006384</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.1039516621759</v>
+        <v>163.106313899194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6685993808934415</v>
+        <v>0.6686389146096435</v>
       </c>
       <c r="D7" t="n">
-        <v>688.9740633222689</v>
+        <v>688.984349751433</v>
       </c>
       <c r="E7" t="n">
-        <v>62.49119224692729</v>
+        <v>62.49213477006384</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.553812230041</v>
+        <v>175.5599474666803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6615400631989474</v>
+        <v>0.6615640632291895</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.567714934976</v>
+        <v>2791.579178364535</v>
       </c>
       <c r="E8" t="n">
-        <v>16.58175719192872</v>
+        <v>16.57985464887442</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.1039515293099</v>
+        <v>163.1063137663231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6685993808934415</v>
+        <v>0.6686389146096435</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.805393453219</v>
+        <v>2760.807914229481</v>
       </c>
       <c r="E9" t="n">
-        <v>16.58175719192872</v>
+        <v>16.57985464887442</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.1039516621759</v>
+        <v>163.106313899194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6685993808934415</v>
+        <v>0.6686389146096435</v>
       </c>
       <c r="D10" t="n">
-        <v>711.8744851540134</v>
+        <v>711.8311180862734</v>
       </c>
       <c r="E10" t="n">
-        <v>79.07294943885601</v>
+        <v>79.07198941893827</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.1039516621759</v>
+        <v>163.106313899194</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6685993808934415</v>
+        <v>0.6686389146096435</v>
       </c>
       <c r="D11" t="n">
-        <v>711.8744851540134</v>
+        <v>711.8311180862734</v>
       </c>
       <c r="E11" t="n">
-        <v>80.74787227106114</v>
+        <v>80.75401415221883</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6685993808934415</v>
+        <v>0.6686389146096435</v>
       </c>
       <c r="D12" t="n">
-        <v>251.725052365703</v>
+        <v>251.7250855611634</v>
       </c>
       <c r="E12" t="n">
-        <v>80.74971409728838</v>
+        <v>80.75147527258495</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.66174288286606</v>
+        <v>57.6581761346813</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>241.9671562997813</v>
+        <v>241.9522378627679</v>
       </c>
       <c r="E13" t="n">
-        <v>73.729319216097</v>
+        <v>73.74088882682584</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.66174288286606</v>
+        <v>57.6581761346813</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>241.9671562997813</v>
+        <v>241.9522378627679</v>
       </c>
       <c r="E14" t="n">
-        <v>73.729319216097</v>
+        <v>73.74088882682584</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.32357052268856</v>
+        <v>99.31779786317566</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09899411303942793</v>
+        <v>0.09897363600861089</v>
       </c>
       <c r="D15" t="n">
-        <v>416.3129958352464</v>
+        <v>416.2886492453502</v>
       </c>
       <c r="E15" t="n">
-        <v>57.20015835754518</v>
+        <v>57.20123009042541</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.63578326718226</v>
+        <v>66.63496560632206</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09899440239089899</v>
+        <v>0.09897352957437752</v>
       </c>
       <c r="D16" t="n">
-        <v>279.0275497581214</v>
+        <v>279.0241080213231</v>
       </c>
       <c r="E16" t="n">
-        <v>57.19992389401288</v>
+        <v>57.20216065815227</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.82797939224878</v>
+        <v>82.82507274316501</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>346.8007497153457</v>
+        <v>346.7885795756319</v>
       </c>
       <c r="E19" t="n">
         <v>74.48454945148245</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.6622999220861</v>
+        <v>116.6603531342199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1785553164120046</v>
+        <v>0.178563155860718</v>
       </c>
       <c r="D20" t="n">
-        <v>2671.94211861831</v>
+        <v>2671.898193795414</v>
       </c>
       <c r="E20" t="n">
-        <v>16.72169809815789</v>
+        <v>16.72826548836649</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.0806013733748</v>
+        <v>115.0819483181239</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1696275505914043</v>
+        <v>0.1696349980676821</v>
       </c>
       <c r="D21" t="n">
-        <v>482.9350408433513</v>
+        <v>482.9407514374196</v>
       </c>
       <c r="E21" t="n">
-        <v>16.72169809815789</v>
+        <v>16.72826548836649</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.80343107595544</v>
+        <v>96.79801431900965</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>405.3159659150255</v>
+        <v>405.2932859536934</v>
       </c>
       <c r="E22" t="n">
         <v>591.2837119978337</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.04020034053346</v>
+        <v>61.0398341872926</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.7612351867101</v>
+        <v>100.7554113670944</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1042043295151873</v>
+        <v>0.1041827747459062</v>
       </c>
       <c r="D25" t="n">
-        <v>2598.197812013385</v>
+        <v>2598.136495091699</v>
       </c>
       <c r="E25" t="n">
-        <v>40.47854105108226</v>
+        <v>40.47300508801509</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.7753869346262</v>
+        <v>500.7652620897292</v>
       </c>
       <c r="C26" t="n">
-        <v>7.050325120005112</v>
+        <v>7.051712747639329</v>
       </c>
       <c r="D26" t="n">
-        <v>3412.681976598911</v>
+        <v>3412.641046699354</v>
       </c>
       <c r="E26" t="n">
-        <v>57.14788415918878</v>
+        <v>57.15996830600056</v>
       </c>
       <c r="F26" t="n">
-        <v>6.798493853698969</v>
+        <v>6.798355179039773</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>190.4592074428836</v>
+        <v>190.4421719084938</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4869356406793768</v>
+        <v>0.4869862657847764</v>
       </c>
       <c r="D27" t="n">
-        <v>2836.014992132149</v>
+        <v>2835.975340068571</v>
       </c>
       <c r="E27" t="n">
-        <v>57.14788415918878</v>
+        <v>57.15996830600056</v>
       </c>
       <c r="F27" t="n">
-        <v>7.030577412266711</v>
+        <v>7.030445270609041</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.6308328233308</v>
+        <v>172.6368414137895</v>
       </c>
       <c r="C28" t="n">
-        <v>0.565184871541504</v>
+        <v>0.5652175414943397</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.567714934976</v>
+        <v>2791.579178364535</v>
       </c>
       <c r="E28" t="n">
-        <v>16.58175719192872</v>
+        <v>16.57985464887442</v>
       </c>
       <c r="F28" t="n">
-        <v>6.866341610131606</v>
+        <v>6.866341719265051</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.8465577931248</v>
+        <v>185.8361398889881</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4869356406793768</v>
+        <v>0.4869862657847764</v>
       </c>
       <c r="D29" t="n">
-        <v>2826.018823090501</v>
+        <v>2825.993190959381</v>
       </c>
       <c r="E29" t="n">
-        <v>73.72964135111751</v>
+        <v>73.739822954875</v>
       </c>
       <c r="F29" t="n">
-        <v>7.008907690572074</v>
+        <v>7.008805298205917</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.6621272108693</v>
+        <v>116.6614606093992</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1785586073832924</v>
+        <v>0.1785547635205915</v>
       </c>
       <c r="D30" t="n">
-        <v>2671.941423443524</v>
+        <v>2671.902650978734</v>
       </c>
       <c r="E30" t="n">
-        <v>73.72964135111751</v>
+        <v>73.739822954875</v>
       </c>
       <c r="F30" t="n">
-        <v>7.090103688617342</v>
+        <v>7.090013807885875</v>
       </c>
       <c r="G30" t="n">
-        <v>98.68420200890088</v>
+        <v>98.68249428532275</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.7610604421218</v>
+        <v>100.7563717061332</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1042036827073785</v>
+        <v>0.104186328840656</v>
       </c>
       <c r="D31" t="n">
-        <v>2598.197073861525</v>
+        <v>2598.140475490674</v>
       </c>
       <c r="E31" t="n">
-        <v>57.00802404465458</v>
+        <v>57.01159795246467</v>
       </c>
       <c r="F31" t="n">
-        <v>7.134883824036225</v>
+        <v>7.134805472932242</v>
       </c>
       <c r="G31" t="n">
-        <v>96.5147123481712</v>
+        <v>96.51254824949885</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.75400174352365</v>
+        <v>69.76694959501128</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03087047482839512</v>
+        <v>0.03088779387848607</v>
       </c>
       <c r="D32" t="n">
-        <v>2598.197073861525</v>
+        <v>2598.140475490674</v>
       </c>
       <c r="E32" t="n">
-        <v>16.52939532208411</v>
+        <v>16.53872816867357</v>
       </c>
       <c r="F32" t="n">
-        <v>7.677517120960746</v>
+        <v>7.677098085389009</v>
       </c>
       <c r="G32" t="n">
-        <v>98.82250324966287</v>
+        <v>98.81911242227349</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.95085264841663</v>
+        <v>24.95390058827485</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003160653642060076</v>
+        <v>0.003161228197622074</v>
       </c>
       <c r="D33" t="n">
-        <v>2450.30064216801</v>
+        <v>2450.140379406704</v>
       </c>
       <c r="E33" t="n">
-        <v>16.52939532208411</v>
+        <v>16.53872816867357</v>
       </c>
       <c r="F33" t="n">
-        <v>8.23527172047643</v>
+        <v>8.234653658430199</v>
       </c>
       <c r="G33" t="n">
-        <v>96.06372265222485</v>
+        <v>96.05692155794361</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.95085264841663</v>
+        <v>24.95390058827485</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003160653642060076</v>
+        <v>0.003161228197622074</v>
       </c>
       <c r="D34" t="n">
-        <v>104.6236986687319</v>
+        <v>104.6364445240541</v>
       </c>
       <c r="E34" t="n">
-        <v>16.52939532208411</v>
+        <v>16.53872816867357</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.97373902878468</v>
+        <v>26.97678897113155</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.7197737432639</v>
+        <v>113.7325192072244</v>
       </c>
       <c r="E35" t="n">
-        <v>16.52939532208411</v>
+        <v>16.53872816867357</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.7242044600821</v>
+        <v>499.7239433817101</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3467.632659828084</v>
+        <v>3467.632083869089</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16416910083357</v>
+        <v>10.16421135395373</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>514.7242044600821</v>
+        <v>514.7239433817101</v>
       </c>
       <c r="C42" t="n">
-        <v>6.299756139556944</v>
+        <v>6.300438386863817</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.757425983475</v>
+        <v>3454.749511850787</v>
       </c>
       <c r="E42" t="n">
-        <v>11.79859431682108</v>
+        <v>11.79888047789628</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-15, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-15, Volume=10x15x8.xlsx
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7081745292465879</v>
+        <v>0.8021214455367486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7501460646950332</v>
+        <v>0.8315041172075075</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9440488493857412</v>
+        <v>0.9646632276825801</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7151865818894918</v>
+        <v>0.6733601788257607</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.9778355024617</v>
+        <v>57.81071545682028</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.96219351417298</v>
+        <v>35.92836312225887</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493828113476047</v>
+        <v>0.8493229938490767</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.36260913719396</v>
+        <v>12.56555508513335</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8295741796807156</v>
+        <v>0.825678552836127</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.205299493024405</v>
+        <v>5.049840703185087</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.81496103154647</v>
+        <v>0.8132232874436185</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.447733358070353</v>
+        <v>4.266956546242962</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4710234891358024</v>
+        <v>0.5939667902649773</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1504375065869072</v>
+        <v>0.1951171214610923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1674111915286556</v>
+        <v>0.2163708834052282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8986108109812777</v>
+        <v>0.9017716172821137</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40880.98721640267</v>
+        <v>40694.74289286267</v>
       </c>
       <c r="C2" t="n">
-        <v>41293.92648121482</v>
+        <v>41105.80090188148</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90260.33330376011</v>
+        <v>88041.32754363108</v>
       </c>
       <c r="C3" t="n">
-        <v>91172.05384218194</v>
+        <v>88930.63388245563</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38361.9124573999</v>
+        <v>39083.60579384901</v>
       </c>
       <c r="C4" t="n">
-        <v>38749.40652262616</v>
+        <v>39478.38969075658</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.1386080147599</v>
+        <v>511.5112875643487</v>
       </c>
       <c r="C5" t="n">
-        <v>515.2915232472322</v>
+        <v>516.6780682468169</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32542.00956479759</v>
+        <v>33203.76319091405</v>
       </c>
       <c r="C6" t="n">
-        <v>32870.71673211877</v>
+        <v>33539.15473829702</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37155.40802481359</v>
+        <v>37794.84689314437</v>
       </c>
       <c r="C7" t="n">
-        <v>37530.71517657938</v>
+        <v>38176.61302337815</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.25128662611522</v>
+        <v>40.57579496888864</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.52670184351577</v>
+        <v>84.52213960745038</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.77330288937114</v>
+        <v>7.453356782663086</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.9760869615703</v>
+        <v>461.2954511993785</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.0249185059437</v>
+        <v>866.3861188453654</v>
       </c>
       <c r="E6" t="n">
         <v>520.834447815</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.2921587189747</v>
+        <v>307.5706320880709</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>690.9749497017178</v>
+        <v>695.6396671551275</v>
       </c>
       <c r="E7" t="n">
         <v>520.834447815</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.5006508175015</v>
+        <v>237.5409272021315</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.5762483769738</v>
+        <v>619.8413211425395</v>
       </c>
       <c r="E8" t="n">
         <v>520.834447815</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.5790364313105</v>
+        <v>236.6174069278242</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.5868907693713</v>
+        <v>618.8493013742343</v>
       </c>
       <c r="E9" t="n">
         <v>520.834447815</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.4456416982148</v>
+        <v>176.3096930277657</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.4752496902958</v>
+        <v>554.4542620695182</v>
       </c>
       <c r="E10" t="n">
         <v>520.834447815</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.1967189900027</v>
+        <v>106.8999158190087</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.41643074307</v>
+        <v>481.1553219100562</v>
       </c>
       <c r="E11" t="n">
         <v>520.834447815</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.6389435505874</v>
+        <v>502.7224134767299</v>
       </c>
       <c r="C3" t="n">
-        <v>7.647973801804755</v>
+        <v>8.20615024985133</v>
       </c>
       <c r="D3" t="n">
-        <v>3412.641046699354</v>
+        <v>3403.778334878129</v>
       </c>
       <c r="E3" t="n">
-        <v>62.49213477006384</v>
+        <v>62.27783834721165</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.1186290533722</v>
+        <v>299.6245022995064</v>
       </c>
       <c r="C4" t="n">
-        <v>8.012714957990715</v>
+        <v>8.542566365203285</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.494037122086</v>
+        <v>2750.357724819061</v>
       </c>
       <c r="E4" t="n">
-        <v>62.49213477006384</v>
+        <v>62.27783834721165</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.4507124948609</v>
+        <v>298.536720057356</v>
       </c>
       <c r="C5" t="n">
-        <v>8.012714957990715</v>
+        <v>8.542566365203285</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.175869079103</v>
+        <v>1336.683174289111</v>
       </c>
       <c r="E5" t="n">
-        <v>62.49213477006384</v>
+        <v>62.27783834721165</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.7470457827976</v>
+        <v>166.7147768055629</v>
       </c>
       <c r="C6" t="n">
-        <v>8.012714957990715</v>
+        <v>8.542566365203285</v>
       </c>
       <c r="D6" t="n">
-        <v>700.3165683074525</v>
+        <v>709.1327469751875</v>
       </c>
       <c r="E6" t="n">
-        <v>62.49213477006384</v>
+        <v>62.27783834721165</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.106313899194</v>
+        <v>164.7744746954497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6686389146096435</v>
+        <v>0.6970244743579392</v>
       </c>
       <c r="D7" t="n">
-        <v>688.984349751433</v>
+        <v>696.2530217499034</v>
       </c>
       <c r="E7" t="n">
-        <v>62.49213477006384</v>
+        <v>62.27783834721165</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.5599474666803</v>
+        <v>177.0809103728671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6615640632291895</v>
+        <v>0.6901231913962542</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.579178364535</v>
+        <v>2793.162475339292</v>
       </c>
       <c r="E8" t="n">
-        <v>16.57985464887442</v>
+        <v>16.72113153932277</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.1063137663231</v>
+        <v>164.7744745590692</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6686389146096435</v>
+        <v>0.6970244743579392</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.807914229481</v>
+        <v>2762.57286688024</v>
       </c>
       <c r="E9" t="n">
-        <v>16.57985464887442</v>
+        <v>16.72113153932277</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.106313899194</v>
+        <v>164.7744746954497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6686389146096435</v>
+        <v>0.6970244743579392</v>
       </c>
       <c r="D10" t="n">
-        <v>711.8311180862734</v>
+        <v>713.3142065403838</v>
       </c>
       <c r="E10" t="n">
-        <v>79.07198941893827</v>
+        <v>78.99896988653443</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.106313899194</v>
+        <v>164.7744746954497</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6686389146096435</v>
+        <v>0.6970244743579392</v>
       </c>
       <c r="D11" t="n">
-        <v>711.8311180862734</v>
+        <v>713.3142065403838</v>
       </c>
       <c r="E11" t="n">
-        <v>80.75401415221883</v>
+        <v>81.88406956907758</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6686389146096435</v>
+        <v>0.6970244743579392</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7250855611634</v>
+        <v>251.7489201208095</v>
       </c>
       <c r="E12" t="n">
-        <v>80.75147527258495</v>
+        <v>81.88351795103452</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.6581761346813</v>
+        <v>55.9718326357177</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>241.9522378627679</v>
+        <v>234.8994306836353</v>
       </c>
       <c r="E13" t="n">
-        <v>73.74088882682584</v>
+        <v>79.0006828443648</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.6581761346813</v>
+        <v>55.9718326357177</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>241.9522378627679</v>
+        <v>234.8994306836353</v>
       </c>
       <c r="E14" t="n">
-        <v>73.74088882682584</v>
+        <v>79.0006828443648</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.31779786317566</v>
+        <v>97.45703523567812</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09897363600861089</v>
+        <v>0.09255335276029078</v>
       </c>
       <c r="D15" t="n">
-        <v>416.2886492453502</v>
+        <v>408.442820038901</v>
       </c>
       <c r="E15" t="n">
-        <v>57.20123009042541</v>
+        <v>57.5475590708962</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.63496560632206</v>
+        <v>66.30149536645712</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09897352957437752</v>
+        <v>0.0925533560091396</v>
       </c>
       <c r="D16" t="n">
-        <v>279.0241080213231</v>
+        <v>277.622200990835</v>
       </c>
       <c r="E16" t="n">
-        <v>57.20216065815227</v>
+        <v>57.5493606029822</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.82507274316501</v>
+        <v>81.79916649750785</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>346.7885795756319</v>
+        <v>342.4931101250654</v>
       </c>
       <c r="E19" t="n">
         <v>74.48454945148245</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.6603531342199</v>
+        <v>117.1019013859026</v>
       </c>
       <c r="C20" t="n">
-        <v>0.178563155860718</v>
+        <v>0.1811059558075097</v>
       </c>
       <c r="D20" t="n">
-        <v>2671.898193795414</v>
+        <v>2660.679023222388</v>
       </c>
       <c r="E20" t="n">
-        <v>16.72826548836649</v>
+        <v>18.83621297642128</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.0819483181239</v>
+        <v>115.516306788821</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1696349980676821</v>
+        <v>0.1720506580171342</v>
       </c>
       <c r="D21" t="n">
-        <v>482.9407514374196</v>
+        <v>484.7824385410213</v>
       </c>
       <c r="E21" t="n">
-        <v>16.72826548836649</v>
+        <v>18.83621297642128</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.79801431900965</v>
+        <v>95.05123571908679</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>405.2932859536934</v>
+        <v>397.9795239558164</v>
       </c>
       <c r="E22" t="n">
         <v>591.2837119978337</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.0398341872926</v>
+        <v>60.91059984016498</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.7554113670944</v>
+        <v>98.878209348702</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1041827747459062</v>
+        <v>0.09742458185293768</v>
       </c>
       <c r="D25" t="n">
-        <v>2598.136495091699</v>
+        <v>2576.746086377305</v>
       </c>
       <c r="E25" t="n">
-        <v>40.47300508801509</v>
+        <v>38.71135129994982</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.7652620897292</v>
+        <v>500.0773649996936</v>
       </c>
       <c r="C26" t="n">
-        <v>7.051712747639329</v>
+        <v>7.657561795926177</v>
       </c>
       <c r="D26" t="n">
-        <v>3412.641046699354</v>
+        <v>3403.778334878129</v>
       </c>
       <c r="E26" t="n">
-        <v>57.15996830600056</v>
+        <v>62.27783834721165</v>
       </c>
       <c r="F26" t="n">
-        <v>6.798355179039773</v>
+        <v>6.751066465386656</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>190.4421719084938</v>
+        <v>187.0345059081976</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4869862657847764</v>
+        <v>0.5164491720752198</v>
       </c>
       <c r="D27" t="n">
-        <v>2835.975340068571</v>
+        <v>2826.873868124628</v>
       </c>
       <c r="E27" t="n">
-        <v>57.15996830600056</v>
+        <v>62.27783834721165</v>
       </c>
       <c r="F27" t="n">
-        <v>7.030445270609041</v>
+        <v>6.984441657196054</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.6368414137895</v>
+        <v>174.2643012516335</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5652175414943397</v>
+        <v>0.5960193448726376</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.579178364535</v>
+        <v>2793.162475339292</v>
       </c>
       <c r="E28" t="n">
-        <v>16.57985464887442</v>
+        <v>16.72113153932277</v>
       </c>
       <c r="F28" t="n">
-        <v>6.866341719265051</v>
+        <v>6.846400769456287</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.8361398889881</v>
+        <v>183.7816535460302</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4869862657847764</v>
+        <v>0.5164491720752198</v>
       </c>
       <c r="D29" t="n">
-        <v>2825.993190959381</v>
+        <v>2819.738425296107</v>
       </c>
       <c r="E29" t="n">
-        <v>73.739822954875</v>
+        <v>78.99896988653443</v>
       </c>
       <c r="F29" t="n">
-        <v>7.008805298205917</v>
+        <v>6.968880935007795</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.6614606093992</v>
+        <v>117.1018155672716</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1785547635205915</v>
+        <v>0.1811088097934975</v>
       </c>
       <c r="D30" t="n">
-        <v>2671.902650978734</v>
+        <v>2660.678691945392</v>
       </c>
       <c r="E30" t="n">
-        <v>73.739822954875</v>
+        <v>78.99896988653443</v>
       </c>
       <c r="F30" t="n">
-        <v>7.090013807885875</v>
+        <v>7.054931779467672</v>
       </c>
       <c r="G30" t="n">
-        <v>98.68249428532275</v>
+        <v>98.1445678601051</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.7563717061332</v>
+        <v>98.87738273900032</v>
       </c>
       <c r="C31" t="n">
-        <v>0.104186328840656</v>
+        <v>0.09742168802420213</v>
       </c>
       <c r="D31" t="n">
-        <v>2598.140475490674</v>
+        <v>2576.742374435849</v>
       </c>
       <c r="E31" t="n">
-        <v>57.01159795246467</v>
+        <v>60.16276211558804</v>
       </c>
       <c r="F31" t="n">
-        <v>7.134805472932242</v>
+        <v>7.106750647937035</v>
       </c>
       <c r="G31" t="n">
-        <v>96.51254824949885</v>
+        <v>95.70442090355661</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.76694959501128</v>
+        <v>75.88611873216161</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03088779387848607</v>
+        <v>0.0400487631710456</v>
       </c>
       <c r="D32" t="n">
-        <v>2598.140475490674</v>
+        <v>2576.742374435849</v>
       </c>
       <c r="E32" t="n">
-        <v>16.53872816867357</v>
+        <v>21.4513222413826</v>
       </c>
       <c r="F32" t="n">
-        <v>7.677098085389009</v>
+        <v>7.498519765641421</v>
       </c>
       <c r="G32" t="n">
-        <v>98.81911242227349</v>
+        <v>97.43963231613105</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.95390058827485</v>
+        <v>26.52057095873812</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003161228197622074</v>
+        <v>0.003468892308288327</v>
       </c>
       <c r="D33" t="n">
-        <v>2450.140379406704</v>
+        <v>2377.828922937209</v>
       </c>
       <c r="E33" t="n">
-        <v>16.53872816867357</v>
+        <v>21.4513222413826</v>
       </c>
       <c r="F33" t="n">
-        <v>8.234653658430199</v>
+        <v>7.952272704320951</v>
       </c>
       <c r="G33" t="n">
-        <v>96.05692155794361</v>
+        <v>92.96865306618568</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.95390058827485</v>
+        <v>26.52057095873812</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003161228197622074</v>
+        <v>0.003468892308288327</v>
       </c>
       <c r="D34" t="n">
-        <v>104.6364445240541</v>
+        <v>111.1874652408251</v>
       </c>
       <c r="E34" t="n">
-        <v>16.53872816867357</v>
+        <v>21.4513222413826</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.97678897113155</v>
+        <v>28.54444147978279</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.7325192072244</v>
+        <v>120.2832738471908</v>
       </c>
       <c r="E35" t="n">
-        <v>16.53872816867357</v>
+        <v>21.4513222413826</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-15, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-15, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>945.3090876972303</v>
       </c>
       <c r="E3" t="n">
-        <v>442.6939874980879</v>
+        <v>442.6155506884804</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.65574640814705</v>
+        <v>13.65566656836788</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.4809495091896</v>
+        <v>539.482434514446</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>962.8389241452471</v>
+        <v>962.8418382293713</v>
       </c>
       <c r="E5" t="n">
-        <v>456.3497339062349</v>
+        <v>456.2712172568483</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781568849163264</v>
+        <v>0.7781565289116668</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202169370355482</v>
+        <v>0.1202163584447602</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03195092707450154</v>
+        <v>0.03195123454220037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310963776439688</v>
+        <v>0.06311025399277378</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565613209227042</v>
+        <v>0.006565624108598893</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.5348697871895</v>
+        <v>464.534233573511</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.0645605073136</v>
+        <v>877.065004503531</v>
       </c>
       <c r="E6" t="n">
-        <v>456.3497339062349</v>
+        <v>456.2712172568483</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781568849163264</v>
+        <v>0.7781565289116668</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202169370355482</v>
+        <v>0.1202163584447602</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03195092707450154</v>
+        <v>0.03195123454220037</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310963776439688</v>
+        <v>0.06311025399277378</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565613209227042</v>
+        <v>0.006565624108598893</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.606001420099</v>
+        <v>290.5972614667888</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.7403589192483</v>
+        <v>683.7319330206012</v>
       </c>
       <c r="E7" t="n">
-        <v>456.3497339062349</v>
+        <v>456.2712172568483</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781568849163264</v>
+        <v>0.7781565289116668</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202169370355482</v>
+        <v>0.1202163584447602</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03195092707450154</v>
+        <v>0.03195123454220037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310963776439688</v>
+        <v>0.06311025399277378</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565613209227042</v>
+        <v>0.006565624108598893</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.6520352615364</v>
+        <v>225.5256059227992</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.502317531795</v>
+        <v>613.3676029507631</v>
       </c>
       <c r="E8" t="n">
-        <v>456.3497339062349</v>
+        <v>456.2712172568483</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781568849163264</v>
+        <v>0.7781565289116668</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202169370355482</v>
+        <v>0.1202163584447602</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03195092707450154</v>
+        <v>0.03195123454220037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310963776439688</v>
+        <v>0.06311025399277378</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565613209227042</v>
+        <v>0.006565624108598893</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.7316056841935</v>
+        <v>224.6049978351151</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.5138824466952</v>
+        <v>612.3790009444903</v>
       </c>
       <c r="E9" t="n">
-        <v>456.3497339062349</v>
+        <v>456.2712172568483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781568849163264</v>
+        <v>0.7781565289116668</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202169370355482</v>
+        <v>0.1202163584447602</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03195092707450154</v>
+        <v>0.03195123454220037</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310963776439688</v>
+        <v>0.06311025399277378</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565613209227042</v>
+        <v>0.006565624108598893</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.4433206139853</v>
+        <v>166.2154073819026</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.2714692627325</v>
+        <v>550.0304190676844</v>
       </c>
       <c r="E10" t="n">
-        <v>456.3497339062349</v>
+        <v>456.2712172568483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781568849163264</v>
+        <v>0.7781565289116668</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202169370355482</v>
+        <v>0.1202163584447602</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03195092707450154</v>
+        <v>0.03195123454220037</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310963776439688</v>
+        <v>0.06311025399277378</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565613209227042</v>
+        <v>0.006565624108598893</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.2223691603007</v>
+        <v>104.078955338023</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>484.4955509446694</v>
+        <v>484.3456324071641</v>
       </c>
       <c r="E11" t="n">
-        <v>456.3497339062349</v>
+        <v>456.2712172568483</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781568849163264</v>
+        <v>0.7781565289116668</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202169370355482</v>
+        <v>0.1202163584447602</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03195092707450154</v>
+        <v>0.03195123454220037</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310963776439688</v>
+        <v>0.06311025399277378</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565613209227042</v>
+        <v>0.006565624108598893</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.94440551203509</v>
+        <v>12.9443298311864</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7113408961119737</v>
+        <v>0.7113367371814867</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396211504722</v>
+        <v>11.97399655009617</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396211504722</v>
+        <v>11.97399655009617</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396211504722</v>
+        <v>11.97399655009617</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396211504722</v>
+        <v>11.97399655009617</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762714106013261</v>
+        <v>4.762727802757229</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944165</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8021214455367486</v>
+        <v>0.8016694065568164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8315041172075075</v>
+        <v>0.831028741822797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9646632276825801</v>
+        <v>0.9646710952480619</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6733601788257607</v>
+        <v>0.673764412862056</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.81071545682028</v>
+        <v>57.81021709049367</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.92836312225887</v>
+        <v>35.93000700900402</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493229938490767</v>
+        <v>0.8493226536464669</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.56555508513335</v>
+        <v>12.56469481565128</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.825678552836127</v>
+        <v>0.8256817970545473</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.049840703185087</v>
+        <v>5.049666846151072</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8132232874436185</v>
+        <v>0.8132239530795518</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.266956546242962</v>
+        <v>4.265848419687288</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5939667902649773</v>
+        <v>0.5939069721362461</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1951171214610923</v>
+        <v>0.195092726094136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2163708834052282</v>
+        <v>0.2163442710162997</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9017716172821137</v>
+        <v>0.9017697819205827</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40694.74289286267</v>
+        <v>40696.19545810612</v>
       </c>
       <c r="C2" t="n">
-        <v>41105.80090188148</v>
+        <v>41107.26813950113</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88041.32754363108</v>
+        <v>88040.03584393831</v>
       </c>
       <c r="C3" t="n">
-        <v>88930.63388245563</v>
+        <v>88929.32913529122</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39083.60579384901</v>
+        <v>39093.80933496407</v>
       </c>
       <c r="C4" t="n">
-        <v>39478.38969075658</v>
+        <v>39488.6962979435</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>511.5112875643487</v>
+        <v>511.4973732273058</v>
       </c>
       <c r="C5" t="n">
-        <v>516.6780682468169</v>
+        <v>516.664013360915</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33203.76319091405</v>
+        <v>33197.06787108743</v>
       </c>
       <c r="C6" t="n">
-        <v>33539.15473829702</v>
+        <v>33532.3917889772</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37794.84689314437</v>
+        <v>37788.04964280697</v>
       </c>
       <c r="C7" t="n">
-        <v>38176.61302337815</v>
+        <v>38169.74711394644</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.57579496888864</v>
+        <v>40.5764361190354</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.52213960745038</v>
+        <v>84.52128203984307</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.453356782663086</v>
+        <v>7.453573200123645</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>514.7228722392084</v>
+        <v>514.7282317676021</v>
       </c>
       <c r="C3" t="n">
-        <v>6.300533394366919</v>
+        <v>6.299857793711547</v>
       </c>
       <c r="D3" t="n">
-        <v>3454.746375413005</v>
+        <v>3454.766916345009</v>
       </c>
       <c r="E3" t="n">
-        <v>57.15996830600056</v>
+        <v>57.14868515310237</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.635901784008</v>
+        <v>282.6281061529385</v>
       </c>
       <c r="C4" t="n">
-        <v>6.675613302879985</v>
+        <v>6.674835635424539</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.740045081909</v>
+        <v>2776.749642193185</v>
       </c>
       <c r="E4" t="n">
-        <v>57.15996830600056</v>
+        <v>57.14868515310237</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2405785172772</v>
+        <v>282.2394007844014</v>
       </c>
       <c r="C5" t="n">
-        <v>6.675613302879985</v>
+        <v>6.674835635424539</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.62542094003</v>
+        <v>1248.619630882611</v>
       </c>
       <c r="E5" t="n">
-        <v>57.15996830600056</v>
+        <v>57.14868515310237</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.3372724753902</v>
+        <v>163.1049441552439</v>
       </c>
       <c r="C6" t="n">
-        <v>6.675613302879985</v>
+        <v>6.674835635424539</v>
       </c>
       <c r="D6" t="n">
-        <v>693.446466337782</v>
+        <v>692.4415087302076</v>
       </c>
       <c r="E6" t="n">
-        <v>57.15996830600056</v>
+        <v>57.14868515310237</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.1372120349715</v>
+        <v>155.8901469684982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5598277510113088</v>
+        <v>0.5562475919319501</v>
       </c>
       <c r="D7" t="n">
-        <v>658.7146869305888</v>
+        <v>657.6443387274745</v>
       </c>
       <c r="E7" t="n">
-        <v>57.15996830600056</v>
+        <v>57.14868515310237</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.0624285915872</v>
+        <v>168.7965917990281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5538273581125662</v>
+        <v>0.5526042245538207</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.207711567871</v>
+        <v>2783.862360318394</v>
       </c>
       <c r="E8" t="n">
-        <v>14.3624522378161</v>
+        <v>14.3892922875852</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.1372119161933</v>
+        <v>155.890146850202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5598277510113088</v>
+        <v>0.5562475919319501</v>
       </c>
       <c r="D9" t="n">
-        <v>2753.113194878103</v>
+        <v>2752.831128185426</v>
       </c>
       <c r="E9" t="n">
-        <v>14.3624522378161</v>
+        <v>14.3892922875852</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.1372120349715</v>
+        <v>155.8901469684982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5598277510113088</v>
+        <v>0.5562475919319501</v>
       </c>
       <c r="D10" t="n">
-        <v>686.1363012986042</v>
+        <v>685.345621182126</v>
       </c>
       <c r="E10" t="n">
-        <v>71.52242054381666</v>
+        <v>71.53797744068757</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.1372120349715</v>
+        <v>155.8901469684982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5598277510113088</v>
+        <v>0.5562475919319501</v>
       </c>
       <c r="D11" t="n">
-        <v>686.1363012986042</v>
+        <v>685.345621182126</v>
       </c>
       <c r="E11" t="n">
-        <v>71.52242054381666</v>
+        <v>71.53797744068757</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.51663127960404</v>
+        <v>64.5038669776884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5598277510113088</v>
+        <v>0.5562475919319501</v>
       </c>
       <c r="D12" t="n">
-        <v>270.649040552693</v>
+        <v>270.5956121564546</v>
       </c>
       <c r="E12" t="n">
-        <v>71.52242054381666</v>
+        <v>71.53797744068757</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.51586980283088</v>
+        <v>64.50481283729613</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>270.6458531858697</v>
+        <v>270.5995713016781</v>
       </c>
       <c r="E13" t="n">
-        <v>71.51610337470528</v>
+        <v>71.53963832127366</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.84304631853826</v>
+        <v>63.83008816202261</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>267.8296825936135</v>
+        <v>267.7754471406894</v>
       </c>
       <c r="E14" t="n">
-        <v>59.71722289680899</v>
+        <v>59.74102903181232</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.4999440169696</v>
+        <v>103.4961534102021</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1147580979709338</v>
+        <v>0.1147429030595031</v>
       </c>
       <c r="D15" t="n">
-        <v>433.937946165634</v>
+        <v>433.9219391580074</v>
       </c>
       <c r="E15" t="n">
-        <v>55.27235187626608</v>
+        <v>55.27379425020654</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.27636143046715</v>
+        <v>67.27651747451171</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1147580419513209</v>
+        <v>0.1147464986429414</v>
       </c>
       <c r="D16" t="n">
-        <v>281.7235044636936</v>
+        <v>281.7241485445488</v>
       </c>
       <c r="E16" t="n">
-        <v>55.27130023716666</v>
+        <v>55.27494784390645</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>583.2604982279046</v>
+        <v>583.2636225189971</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.47385788213936</v>
+        <v>73.47425145194292</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.97414570771838</v>
+        <v>84.97350982378035</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>355.7867480782169</v>
+        <v>355.7840856321683</v>
       </c>
       <c r="E19" t="n">
-        <v>73.47385788213936</v>
+        <v>73.47425145194292</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>120.7587605494252</v>
+        <v>120.7244236550317</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1727247070660548</v>
+        <v>0.1727297396495097</v>
       </c>
       <c r="D20" t="n">
-        <v>2710.472454467115</v>
+        <v>2710.397386958547</v>
       </c>
       <c r="E20" t="n">
-        <v>11.79916046893286</v>
+        <v>11.80358275852493</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.0651118155972</v>
+        <v>114.0660003582595</v>
       </c>
       <c r="C21" t="n">
-        <v>0.164088471712752</v>
+        <v>0.1640932526670343</v>
       </c>
       <c r="D21" t="n">
-        <v>478.6305325622835</v>
+        <v>478.634298243945</v>
       </c>
       <c r="E21" t="n">
-        <v>11.79916046893286</v>
+        <v>11.80358275852493</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.7654271565851</v>
+        <v>100.7618604696479</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>421.9048435046218</v>
+        <v>421.8899097864156</v>
       </c>
       <c r="E22" t="n">
-        <v>583.2604982279046</v>
+        <v>583.2636225189971</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>466.60274855267</v>
       </c>
       <c r="E23" t="n">
-        <v>583.2604982279046</v>
+        <v>583.2636225189971</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.31055487222787</v>
+        <v>61.31047476934719</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>583.2604982279046</v>
+        <v>583.2636225189971</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.9748801183444</v>
+        <v>104.9710554495331</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1207979978641408</v>
+        <v>0.1207820032205296</v>
       </c>
       <c r="D25" t="n">
-        <v>2660.578879475521</v>
+        <v>2660.471364221823</v>
       </c>
       <c r="E25" t="n">
-        <v>43.47316739591434</v>
+        <v>43.47115595910646</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>511.8200742578795</v>
+        <v>511.826554152202</v>
       </c>
       <c r="C26" t="n">
-        <v>5.677334867366413</v>
+        <v>5.676857419273417</v>
       </c>
       <c r="D26" t="n">
-        <v>3454.746375413005</v>
+        <v>3454.766916345009</v>
       </c>
       <c r="E26" t="n">
-        <v>45.3557777670273</v>
+        <v>45.35156466806939</v>
       </c>
       <c r="F26" t="n">
-        <v>6.947606316113766</v>
+        <v>6.94766967763783</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>203.8908570662351</v>
+        <v>203.930327474014</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4097604889460503</v>
+        <v>0.4098846353947364</v>
       </c>
       <c r="D27" t="n">
-        <v>2868.600075888532</v>
+        <v>2868.676730366726</v>
       </c>
       <c r="E27" t="n">
-        <v>45.3557777670273</v>
+        <v>45.35156466806939</v>
       </c>
       <c r="F27" t="n">
-        <v>7.177559141344845</v>
+        <v>7.177582951660532</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.3334390070941</v>
+        <v>166.1905388100392</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4684656345346367</v>
+        <v>0.4688093982551031</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.207711567871</v>
+        <v>2783.862360318394</v>
       </c>
       <c r="E28" t="n">
-        <v>14.3624522378161</v>
+        <v>14.3892922875852</v>
       </c>
       <c r="F28" t="n">
-        <v>6.93308307814628</v>
+        <v>6.931970476873075</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>194.2394978732905</v>
+        <v>194.2164682607342</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4097604889460503</v>
+        <v>0.4098846353947364</v>
       </c>
       <c r="D29" t="n">
-        <v>2848.303404307784</v>
+        <v>2848.248185765854</v>
       </c>
       <c r="E29" t="n">
-        <v>59.7182300048434</v>
+        <v>59.74085695565459</v>
       </c>
       <c r="F29" t="n">
-        <v>7.134575251438253</v>
+        <v>7.134320509724125</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120.7592986565604</v>
+        <v>120.7236954867203</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1727243305519661</v>
+        <v>0.1727406775505872</v>
       </c>
       <c r="D30" t="n">
-        <v>2710.473456920836</v>
+        <v>2710.396030429332</v>
       </c>
       <c r="E30" t="n">
-        <v>59.7182300048434</v>
+        <v>59.74085695565459</v>
       </c>
       <c r="F30" t="n">
-        <v>7.203826998641973</v>
+        <v>7.203587653343911</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.9753247966071</v>
+        <v>104.9703819133425</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1207998576079455</v>
+        <v>0.1207791866945476</v>
       </c>
       <c r="D31" t="n">
-        <v>2660.58096932448</v>
+        <v>2660.46818337163</v>
       </c>
       <c r="E31" t="n">
-        <v>47.91904552449166</v>
+        <v>47.9382186645545</v>
       </c>
       <c r="F31" t="n">
-        <v>7.235229273844773</v>
+        <v>7.235007813214918</v>
       </c>
       <c r="G31" t="n">
-        <v>98.98493346550727</v>
+        <v>98.98025299381318</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.80532375927913</v>
+        <v>85.74894841435452</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008859409749313074</v>
+        <v>0.008896263328529911</v>
       </c>
       <c r="D32" t="n">
-        <v>2660.58096932448</v>
+        <v>2660.46818337163</v>
       </c>
       <c r="E32" t="n">
-        <v>4.445922659642328</v>
+        <v>4.466081187905871</v>
       </c>
       <c r="F32" t="n">
-        <v>8.431235815958969</v>
+        <v>8.429008748173143</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>81.921610227288</v>
+        <v>81.76298887205388</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002412774518076025</v>
+        <v>0.002414014170199081</v>
       </c>
       <c r="D33" t="n">
-        <v>2654.205235074744</v>
+        <v>2653.905566915969</v>
       </c>
       <c r="E33" t="n">
-        <v>4.445922659642328</v>
+        <v>4.466081187905871</v>
       </c>
       <c r="F33" t="n">
-        <v>9.013134325964895</v>
+        <v>9.012053217750369</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.50007199859573</v>
+        <v>20.5083963083909</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002412774518076025</v>
+        <v>0.002414014170199081</v>
       </c>
       <c r="D34" t="n">
-        <v>86.00660901764994</v>
+        <v>86.04143921430783</v>
       </c>
       <c r="E34" t="n">
-        <v>4.445922659642328</v>
+        <v>4.466081187905871</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.51967513474403</v>
+        <v>22.52800627031911</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>95.10297121967047</v>
+        <v>95.13780126079415</v>
       </c>
       <c r="E35" t="n">
-        <v>4.445922659642328</v>
+        <v>4.466081187905871</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.7239433817101</v>
+        <v>499.7327619664827</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3467.632083869089</v>
+        <v>3467.651538357041</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421135395373</v>
+        <v>10.16424058447177</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>284.8992297912401</v>
       </c>
       <c r="E41" t="n">
-        <v>11.79888047789628</v>
+        <v>11.79860928946134</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>514.7239433817101</v>
+        <v>514.7327619664827</v>
       </c>
       <c r="C42" t="n">
-        <v>6.300438386863817</v>
+        <v>6.299628761466578</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.749511850787</v>
+        <v>3454.779548882967</v>
       </c>
       <c r="E42" t="n">
-        <v>11.79888047789628</v>
+        <v>11.79860928946134</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396211504722</v>
+        <v>11.97399655009617</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396211504722</v>
+        <v>11.97399655009617</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396211504722</v>
+        <v>11.97399655009617</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396211504722</v>
+        <v>11.97399655009617</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762714106013261</v>
+        <v>4.762727802757229</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944165</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.985267410126169</v>
+        <v>1.988612512705171</v>
       </c>
       <c r="C2" t="n">
-        <v>2.26704681198148</v>
+        <v>2.270579670987273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8757064034293031</v>
+        <v>0.8758171043786807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1929431716703184</v>
+        <v>0.1926188667946053</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>127.3643694340626</v>
+        <v>127.3259285665362</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.46084433921728</v>
+        <v>31.45754538852651</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.22012613515001</v>
+        <v>6.220044572104023</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.23522820563936</v>
+        <v>37.23827409130138</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.58512130019743</v>
+        <v>26.58010697071492</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493277492517902</v>
+        <v>0.8493258473628696</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.230960499609218</v>
+        <v>8.235405892987874</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8362175923255346</v>
+        <v>0.8362136465719681</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.39080038445995</v>
+        <v>2.393452049702526</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8077598899408569</v>
+        <v>0.8077835171743463</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02834602137275927</v>
+        <v>0.02930917789606955</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03393191097621867</v>
+        <v>0.03483870252312895</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04044172283427705</v>
+        <v>0.04062509141419351</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0453114235120468</v>
+        <v>0.04551645345548049</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8925281904578641</v>
+        <v>0.8925363979407753</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38751.67694192614</v>
+        <v>38746.12533316217</v>
       </c>
       <c r="C2" t="n">
-        <v>39143.10802214761</v>
+        <v>39137.50033652745</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87341.21347282542</v>
+        <v>87330.19270290641</v>
       </c>
       <c r="C3" t="n">
-        <v>88223.44795234891</v>
+        <v>88212.31586152162</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31732.5803822868</v>
+        <v>31784.16634710343</v>
       </c>
       <c r="C4" t="n">
-        <v>32053.11149725939</v>
+        <v>32105.21853242771</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446.5613671881956</v>
+        <v>446.559934376806</v>
       </c>
       <c r="C5" t="n">
-        <v>451.0720880688845</v>
+        <v>451.0706407846525</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28120.2656072415</v>
+        <v>28163.38471369679</v>
       </c>
       <c r="C6" t="n">
-        <v>28404.30869418333</v>
+        <v>28447.86334716847</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29716.65459366747</v>
+        <v>29670.37678920345</v>
       </c>
       <c r="C7" t="n">
-        <v>30016.82282188633</v>
+        <v>29970.07756485197</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.07052236806817</v>
+        <v>26.07937231191339</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96.35320546752946</v>
+        <v>96.34520691941604</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.328955977696664</v>
+        <v>8.328804971321929</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34586.16106395033</v>
+        <v>34586.45826787774</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2814.523546896093</v>
+        <v>2813.721111438606</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22670.2880589702</v>
+        <v>22670.15551471094</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.776607652509</v>
+        <v>7875.799257027077</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.892132837953</v>
+        <v>5689.908495985944</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.08402964892</v>
+        <v>21121.14477024217</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37501.27631703547</v>
+        <v>37500.57363469379</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7688299494993519</v>
+        <v>0.7685979027317167</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.2954511993785</v>
+        <v>461.2929604916961</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.3861188453654</v>
+        <v>866.3833017551638</v>
       </c>
       <c r="E6" t="n">
         <v>520.834447815</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.5706320880709</v>
+        <v>307.5703460790214</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>695.6396671551275</v>
+        <v>695.6393551741211</v>
       </c>
       <c r="E7" t="n">
         <v>520.834447815</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.5409272021315</v>
+        <v>237.5222162732802</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>619.8413211425395</v>
+        <v>619.821220518078</v>
       </c>
       <c r="E8" t="n">
         <v>520.834447815</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>236.6174069278242</v>
+        <v>236.5987175790008</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>618.8493013742343</v>
+        <v>618.829227735096</v>
       </c>
       <c r="E9" t="n">
         <v>520.834447815</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.3096930277657</v>
+        <v>176.303017083889</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>554.4542620695182</v>
+        <v>554.4471732652889</v>
       </c>
       <c r="E10" t="n">
         <v>520.834447815</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.8999158190087</v>
+        <v>106.9057148973266</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.1553219100562</v>
+        <v>481.1614156237277</v>
       </c>
       <c r="E11" t="n">
         <v>520.834447815</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.7224134767299</v>
+        <v>502.718216131049</v>
       </c>
       <c r="C3" t="n">
-        <v>8.20615024985133</v>
+        <v>8.206252295480411</v>
       </c>
       <c r="D3" t="n">
-        <v>3403.778334878129</v>
+        <v>3403.768733073601</v>
       </c>
       <c r="E3" t="n">
-        <v>62.27783834721165</v>
+        <v>62.27996926138216</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.6245022995064</v>
+        <v>299.6243219474167</v>
       </c>
       <c r="C4" t="n">
-        <v>8.542566365203285</v>
+        <v>8.542544633289081</v>
       </c>
       <c r="D4" t="n">
-        <v>2750.357724819061</v>
+        <v>2750.358068584048</v>
       </c>
       <c r="E4" t="n">
-        <v>62.27783834721165</v>
+        <v>62.27996926138216</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.536720057356</v>
+        <v>298.5549574041524</v>
       </c>
       <c r="C5" t="n">
-        <v>8.542566365203285</v>
+        <v>8.542544633289081</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.683174289111</v>
+        <v>1336.787199445994</v>
       </c>
       <c r="E5" t="n">
-        <v>62.27783834721165</v>
+        <v>62.27996926138216</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.7147768055629</v>
+        <v>166.7084536569532</v>
       </c>
       <c r="C6" t="n">
-        <v>8.542566365203285</v>
+        <v>8.542544633289081</v>
       </c>
       <c r="D6" t="n">
-        <v>709.1327469751875</v>
+        <v>709.1053702061546</v>
       </c>
       <c r="E6" t="n">
-        <v>62.27783834721165</v>
+        <v>62.27996926138216</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.7744746954497</v>
+        <v>164.7699614891471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6970244743579392</v>
+        <v>0.6969464072021566</v>
       </c>
       <c r="D7" t="n">
-        <v>696.2530217499034</v>
+        <v>696.2333438377359</v>
       </c>
       <c r="E7" t="n">
-        <v>62.27783834721165</v>
+        <v>62.27996926138216</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.0809103728671</v>
+        <v>177.0791642177114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6901231913962542</v>
+        <v>0.6900304902553511</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.162475339292</v>
+        <v>2793.163639404621</v>
       </c>
       <c r="E8" t="n">
-        <v>16.72113153932277</v>
+        <v>16.71624776458416</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.7744745590692</v>
+        <v>164.7699613527757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6970244743579392</v>
+        <v>0.6969464072021566</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.57286688024</v>
+        <v>2762.568132854201</v>
       </c>
       <c r="E9" t="n">
-        <v>16.72113153932277</v>
+        <v>16.71624776458416</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.7744746954497</v>
+        <v>164.7699614891471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6970244743579392</v>
+        <v>0.6969464072021566</v>
       </c>
       <c r="D10" t="n">
-        <v>713.3142065403838</v>
+        <v>713.2293792884014</v>
       </c>
       <c r="E10" t="n">
-        <v>78.99896988653443</v>
+        <v>78.99621702596632</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.7744746954497</v>
+        <v>164.7699614891471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6970244743579392</v>
+        <v>0.6969464072021566</v>
       </c>
       <c r="D11" t="n">
-        <v>713.3142065403838</v>
+        <v>713.2293792884014</v>
       </c>
       <c r="E11" t="n">
-        <v>81.88406956907758</v>
+        <v>81.8843790633104</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6970244743579392</v>
+        <v>0.6969464072021566</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7489201208095</v>
+        <v>251.7488545701984</v>
       </c>
       <c r="E12" t="n">
-        <v>81.88351795103452</v>
+        <v>81.88122052361098</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.9718326357177</v>
+        <v>55.97231674291771</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>234.8994306836353</v>
+        <v>234.901455209838</v>
       </c>
       <c r="E13" t="n">
-        <v>79.0006828443648</v>
+        <v>78.99601524603921</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.9718326357177</v>
+        <v>55.97231674291771</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>234.8994306836353</v>
+        <v>234.901455209838</v>
       </c>
       <c r="E14" t="n">
-        <v>79.0006828443648</v>
+        <v>78.99601524603921</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.45703523567812</v>
+        <v>97.4567518494606</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09255335276029078</v>
+        <v>0.0925524019666244</v>
       </c>
       <c r="D15" t="n">
-        <v>408.442820038901</v>
+        <v>408.4416254623582</v>
       </c>
       <c r="E15" t="n">
-        <v>57.5475590708962</v>
+        <v>57.5451151992395</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.30149536645712</v>
+        <v>66.30155818228917</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0925533560091396</v>
+        <v>0.09256018536096673</v>
       </c>
       <c r="D16" t="n">
-        <v>277.622200990835</v>
+        <v>277.6224697050728</v>
       </c>
       <c r="E16" t="n">
-        <v>57.5493606029822</v>
+        <v>57.54737548215261</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.79916649750785</v>
+        <v>81.79986043945559</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>342.4931101250654</v>
+        <v>342.4960156600006</v>
       </c>
       <c r="E19" t="n">
         <v>74.48454945148245</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>117.1019013859026</v>
+        <v>117.1018430276541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1811059558075097</v>
+        <v>0.1811063349794186</v>
       </c>
       <c r="D20" t="n">
-        <v>2660.679023222388</v>
+        <v>2660.673894586287</v>
       </c>
       <c r="E20" t="n">
-        <v>18.83621297642128</v>
+        <v>18.83655737512729</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.516306788821</v>
+        <v>115.5163711866612</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1720506580171342</v>
+        <v>0.1720510182304476</v>
       </c>
       <c r="D21" t="n">
-        <v>484.7824385410213</v>
+        <v>484.7827116115734</v>
       </c>
       <c r="E21" t="n">
-        <v>18.83621297642128</v>
+        <v>18.83655737512729</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.05123571908679</v>
+        <v>95.05097674228135</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>397.9795239558164</v>
+        <v>397.978439619932</v>
       </c>
       <c r="E22" t="n">
         <v>591.2837119978337</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60.91059984016498</v>
+        <v>60.91068725666618</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.878209348702</v>
+        <v>98.8779234666759</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09742458185293768</v>
+        <v>0.09742358101749937</v>
       </c>
       <c r="D25" t="n">
-        <v>2576.746086377305</v>
+        <v>2576.740094062096</v>
       </c>
       <c r="E25" t="n">
-        <v>38.71135129994982</v>
+        <v>38.71112271965274</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.0773649996936</v>
+        <v>500.0745962499516</v>
       </c>
       <c r="C26" t="n">
-        <v>7.657561795926177</v>
+        <v>7.657796078457795</v>
       </c>
       <c r="D26" t="n">
-        <v>3403.778334878129</v>
+        <v>3403.768733073601</v>
       </c>
       <c r="E26" t="n">
-        <v>62.27783834721165</v>
+        <v>62.27996926138216</v>
       </c>
       <c r="F26" t="n">
-        <v>6.751066465386656</v>
+        <v>6.751040784698556</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.0345059081976</v>
+        <v>187.0265695077154</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5164491720752198</v>
+        <v>0.5164303383031734</v>
       </c>
       <c r="D27" t="n">
-        <v>2826.873868124628</v>
+        <v>2826.857610041254</v>
       </c>
       <c r="E27" t="n">
-        <v>62.27783834721165</v>
+        <v>62.27996926138216</v>
       </c>
       <c r="F27" t="n">
-        <v>6.984441657196054</v>
+        <v>6.984422629754127</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.2643012516335</v>
+        <v>174.2628298471953</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5960193448726376</v>
+        <v>0.5959540374455113</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.162475339292</v>
+        <v>2793.163639404621</v>
       </c>
       <c r="E28" t="n">
-        <v>16.72113153932277</v>
+        <v>16.71624776458416</v>
       </c>
       <c r="F28" t="n">
-        <v>6.846400769456287</v>
+        <v>6.846451830304158</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.7816535460302</v>
+        <v>183.7762521436596</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5164491720752198</v>
+        <v>0.5164303383031734</v>
       </c>
       <c r="D29" t="n">
-        <v>2819.738425296107</v>
+        <v>2819.727689362274</v>
       </c>
       <c r="E29" t="n">
-        <v>78.99896988653443</v>
+        <v>78.99621702596632</v>
       </c>
       <c r="F29" t="n">
-        <v>6.968880935007795</v>
+        <v>6.968873724112601</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.1018155672716</v>
+        <v>117.1016898065409</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1811088097934975</v>
+        <v>0.1811080761400004</v>
       </c>
       <c r="D30" t="n">
-        <v>2660.678691945392</v>
+        <v>2660.673303105762</v>
       </c>
       <c r="E30" t="n">
-        <v>78.99896988653443</v>
+        <v>78.99621702596632</v>
       </c>
       <c r="F30" t="n">
-        <v>7.054931779467672</v>
+        <v>7.054919764051184</v>
       </c>
       <c r="G30" t="n">
-        <v>98.1445678601051</v>
+        <v>98.1443327125763</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.87738273900032</v>
+        <v>98.87769449338191</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09742168802420213</v>
+        <v>0.09742277941820726</v>
       </c>
       <c r="D31" t="n">
-        <v>2576.742374435849</v>
+        <v>2576.739125401641</v>
       </c>
       <c r="E31" t="n">
-        <v>60.16276211558804</v>
+        <v>60.16222454637955</v>
       </c>
       <c r="F31" t="n">
-        <v>7.106750647937035</v>
+        <v>7.106737040988515</v>
       </c>
       <c r="G31" t="n">
-        <v>95.70442090355661</v>
+        <v>95.70425368395867</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75.88611873216161</v>
+        <v>75.88304001377583</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0400487631710456</v>
+        <v>0.04004363495580456</v>
       </c>
       <c r="D32" t="n">
-        <v>2576.742374435849</v>
+        <v>2576.739125401641</v>
       </c>
       <c r="E32" t="n">
-        <v>21.4513222413826</v>
+        <v>21.4486397638866</v>
       </c>
       <c r="F32" t="n">
-        <v>7.498519765641421</v>
+        <v>7.498567560677432</v>
       </c>
       <c r="G32" t="n">
-        <v>97.43963231613105</v>
+        <v>97.43972497458078</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.52057095873812</v>
+        <v>26.51969916463679</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003468892308288327</v>
+        <v>0.003468714099397063</v>
       </c>
       <c r="D33" t="n">
-        <v>2377.828922937209</v>
+        <v>2377.852460948925</v>
       </c>
       <c r="E33" t="n">
-        <v>21.4513222413826</v>
+        <v>21.4486397638866</v>
       </c>
       <c r="F33" t="n">
-        <v>7.952272704320951</v>
+        <v>7.952373255869177</v>
       </c>
       <c r="G33" t="n">
-        <v>92.96865306618568</v>
+        <v>92.96968916179743</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.52057095873812</v>
+        <v>26.51969916463679</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003468892308288327</v>
+        <v>0.003468714099397063</v>
       </c>
       <c r="D34" t="n">
-        <v>111.1874652408251</v>
+        <v>111.1838200851266</v>
       </c>
       <c r="E34" t="n">
-        <v>21.4513222413826</v>
+        <v>21.4486397638866</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.54444147978279</v>
+        <v>28.54356916469368</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>120.2832738471908</v>
+        <v>120.2796288749509</v>
       </c>
       <c r="E35" t="n">
-        <v>21.4513222413826</v>
+        <v>21.4486397638866</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.7239433817101</v>
+        <v>499.7327619664827</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3467.632083869089</v>
+        <v>3467.651538357041</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421135395373</v>
+        <v>10.16424058447177</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>514.7239433817101</v>
+        <v>514.7327619664827</v>
       </c>
       <c r="C42" t="n">
-        <v>6.300438386863817</v>
+        <v>6.299628761466578</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.749511850787</v>
+        <v>3454.779548882967</v>
       </c>
       <c r="E42" t="n">
-        <v>11.79888047789628</v>
+        <v>11.79860928946134</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
